--- a/docs/metrics/MetricOverview.xlsx
+++ b/docs/metrics/MetricOverview.xlsx
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Release 1</t>
   </si>
   <si>
     <t>Release 2</t>
-  </si>
-  <si>
-    <t>Current</t>
   </si>
   <si>
     <t>all_lines</t>
@@ -123,6 +120,21 @@
   <si>
     <t>Failed Tests</t>
   </si>
+  <si>
+    <t>4f8d6c3</t>
+  </si>
+  <si>
+    <t>Metrik</t>
+  </si>
+  <si>
+    <t>15b342a</t>
+  </si>
+  <si>
+    <t>6dd3c75</t>
+  </si>
+  <si>
+    <t>9d090b7</t>
+  </si>
 </sst>
 </file>
 
@@ -131,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -146,6 +158,18 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -182,6 +206,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -300,7 +327,7 @@
                   <c:v>1870</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2252</c:v>
+                  <c:v>2394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -372,7 +399,7 @@
                   <c:v>561</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>617</c:v>
+                  <c:v>651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -389,11 +416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="280808408"/>
-        <c:axId val="280808800"/>
+        <c:axId val="179173584"/>
+        <c:axId val="179173976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="280808408"/>
+        <c:axId val="179173584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +440,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280808800"/>
+        <c:crossAx val="179173976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -421,7 +448,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280808800"/>
+        <c:axId val="179173976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,7 +482,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280808408"/>
+        <c:crossAx val="179173584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -504,7 +531,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -573,8 +599,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="280809584"/>
-        <c:axId val="280809976"/>
+        <c:axId val="297555216"/>
+        <c:axId val="297555608"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -627,7 +653,7 @@
                   <c:v>98.421052631578945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>112.6</c:v>
+                  <c:v>119.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,11 +714,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="280809584"/>
-        <c:axId val="280809976"/>
+        <c:axId val="297555216"/>
+        <c:axId val="297555608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="280809584"/>
+        <c:axId val="297555216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -714,7 +740,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="cross"/>
@@ -730,7 +755,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280809976"/>
+        <c:crossAx val="297555608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -738,7 +763,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280809976"/>
+        <c:axId val="297555608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +794,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -791,14 +815,13 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280809584"/>
+        <c:crossAx val="297555216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -883,7 +906,7 @@
                   <c:v>3.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6499189627228525</c:v>
+                  <c:v>3.6774193548387095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,8 +932,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="280810760"/>
-        <c:axId val="280811152"/>
+        <c:axId val="297556392"/>
+        <c:axId val="297556784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -969,11 +992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="280810760"/>
-        <c:axId val="280811152"/>
+        <c:axId val="297556392"/>
+        <c:axId val="297556784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="280810760"/>
+        <c:axId val="297556392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,7 +1034,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280811152"/>
+        <c:crossAx val="297556784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1019,7 +1042,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280811152"/>
+        <c:axId val="297556784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1095,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280810760"/>
+        <c:crossAx val="297556392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1458,7 +1481,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="26" width="9.42578125" customWidth="1"/>
   </cols>
@@ -1472,12 +1495,12 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <f>Metrics!B3</f>
@@ -1488,13 +1511,13 @@
         <v>1870</v>
       </c>
       <c r="D2">
-        <f>Metrics!D3</f>
-        <v>2252</v>
+        <f>Metrics!E3</f>
+        <v>2394</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <f>Metrics!B4</f>
@@ -1505,13 +1528,13 @@
         <v>561</v>
       </c>
       <c r="D3">
-        <f>Metrics!D4</f>
-        <v>617</v>
+        <f>Metrics!E4</f>
+        <v>651</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="9">
         <f>Metrics!B22</f>
@@ -1522,13 +1545,13 @@
         <v>0.2525</v>
       </c>
       <c r="D4" s="9">
-        <f>Metrics!D22</f>
-        <v>0.23699999999999999</v>
+        <f>Metrics!E22</f>
+        <v>0.2351</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <f>Metrics!B18</f>
@@ -1539,13 +1562,13 @@
         <v>19</v>
       </c>
       <c r="D5">
-        <f>Metrics!D18</f>
+        <f>Metrics!E18</f>
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="7">
         <f>Metrics!B19</f>
@@ -1556,13 +1579,13 @@
         <v>98.421052631578945</v>
       </c>
       <c r="D6" s="7">
-        <f>Metrics!D19</f>
-        <v>112.6</v>
+        <f>Metrics!E19</f>
+        <v>119.7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4">
         <v>75</v>
@@ -1576,7 +1599,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="8">
         <f>Metrics!B23</f>
@@ -1587,13 +1610,13 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="D8" s="8">
-        <f>Metrics!D23</f>
-        <v>3.6499189627228525</v>
+        <f>Metrics!E23</f>
+        <v>3.6774193548387095</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
@@ -1607,7 +1630,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4" t="str">
         <f>Metrics!B20</f>
@@ -1618,13 +1641,13 @@
         <v>-</v>
       </c>
       <c r="D10" s="10">
-        <f>Metrics!D20</f>
-        <v>0.83</v>
+        <f>Metrics!E20</f>
+        <v>0.91</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4" t="str">
         <f>Metrics!B21</f>
@@ -1635,7 +1658,7 @@
         <v>-</v>
       </c>
       <c r="D11" s="4">
-        <f>Metrics!D21</f>
+        <f>Metrics!E21</f>
         <v>0</v>
       </c>
     </row>
@@ -4616,14 +4639,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
@@ -4631,19 +4657,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>270</v>
@@ -4654,11 +4686,14 @@
       <c r="D2" s="3">
         <v>3259</v>
       </c>
+      <c r="E2">
+        <v>3454</v>
+      </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>169</v>
@@ -4669,11 +4704,14 @@
       <c r="D3" s="2">
         <v>2252</v>
       </c>
+      <c r="E3">
+        <v>2394</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5">
         <v>57</v>
@@ -4684,11 +4722,14 @@
       <c r="D4" s="5">
         <v>617</v>
       </c>
+      <c r="E4">
+        <v>651</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
@@ -4699,11 +4740,14 @@
       <c r="D5" s="5">
         <v>63</v>
       </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5">
         <v>26.54</v>
@@ -4714,11 +4758,14 @@
       <c r="D6" s="6">
         <v>23.7</v>
       </c>
+      <c r="E6">
+        <v>23.51</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5">
         <v>44</v>
@@ -4729,11 +4776,14 @@
       <c r="D7" s="5">
         <v>390</v>
       </c>
+      <c r="E7">
+        <v>409</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5">
         <v>9</v>
@@ -4744,11 +4794,14 @@
       <c r="D8" s="5">
         <v>12.03</v>
       </c>
+      <c r="E8" s="6">
+        <v>12.16</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5">
         <v>36</v>
@@ -4759,11 +4812,14 @@
       <c r="D9" s="5">
         <v>654</v>
       </c>
+      <c r="E9">
+        <v>695</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5">
         <v>80</v>
@@ -4774,11 +4830,14 @@
       <c r="D10" s="5">
         <v>1120</v>
       </c>
+      <c r="E10">
+        <v>1183</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5">
         <v>116</v>
@@ -4789,11 +4848,14 @@
       <c r="D11" s="5">
         <v>1774</v>
       </c>
+      <c r="E11">
+        <v>1878</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5">
         <v>11</v>
@@ -4804,11 +4866,14 @@
       <c r="D12" s="5">
         <v>145</v>
       </c>
+      <c r="E12">
+        <v>152</v>
+      </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="5">
         <v>11</v>
@@ -4819,11 +4884,14 @@
       <c r="D13" s="5">
         <v>135</v>
       </c>
+      <c r="E13">
+        <v>142</v>
+      </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5">
         <v>9</v>
@@ -4834,11 +4902,14 @@
       <c r="D14" s="5">
         <v>22</v>
       </c>
+      <c r="E14">
+        <v>23</v>
+      </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="5">
         <v>9</v>
@@ -4849,11 +4920,14 @@
       <c r="D15" s="5">
         <v>40</v>
       </c>
+      <c r="E15">
+        <v>42</v>
+      </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="5">
         <v>1.81</v>
@@ -4864,6 +4938,9 @@
       <c r="D16" s="5">
         <v>2.2200000000000002</v>
       </c>
+      <c r="E16">
+        <v>2.19</v>
+      </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
@@ -4871,7 +4948,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4">
         <v>4</v>
@@ -4882,13 +4959,16 @@
       <c r="D18" s="4">
         <v>20</v>
       </c>
+      <c r="E18" s="12">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="7">
-        <f t="shared" ref="B19:D19" si="0">B3/B18</f>
+        <f t="shared" ref="B19:E19" si="0">B3/B18</f>
         <v>42.25</v>
       </c>
       <c r="C19" s="7">
@@ -4896,44 +4976,54 @@
         <v>98.421052631578945</v>
       </c>
       <c r="D19" s="7">
+        <f>D3/D18</f>
+        <v>112.6</v>
+      </c>
+      <c r="E19" s="7">
         <f t="shared" si="0"/>
-        <v>112.6</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4">
         <v>0.83</v>
       </c>
+      <c r="E20" s="4">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
       </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="8">
-        <f t="shared" ref="B22:D22" si="1">B6/100</f>
+        <f t="shared" ref="B22:E22" si="1">B6/100</f>
         <v>0.26539999999999997</v>
       </c>
       <c r="C22" s="8">
@@ -4941,13 +5031,17 @@
         <v>0.2525</v>
       </c>
       <c r="D22" s="8">
+        <f>D6/100</f>
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="E22" s="8">
         <f t="shared" si="1"/>
-        <v>0.23699999999999999</v>
+        <v>0.2351</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8">
         <f t="shared" ref="B23:D23" si="2">B3/B4</f>
@@ -4958,8 +5052,12 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="2"/>
+        <f>D3/D4</f>
         <v>3.6499189627228525</v>
+      </c>
+      <c r="E23" s="8">
+        <f>E3/E4</f>
+        <v>3.6774193548387095</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -9792,5 +9890,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/metrics/MetricOverview.xlsx
+++ b/docs/metrics/MetricOverview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ADA\GitHub\JpegByDate\docs\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\von_teichman.m-tit14\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -416,11 +416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="179173584"/>
-        <c:axId val="179173976"/>
+        <c:axId val="168253512"/>
+        <c:axId val="168253904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179173584"/>
+        <c:axId val="168253512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -440,7 +440,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179173976"/>
+        <c:crossAx val="168253904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -448,7 +448,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179173976"/>
+        <c:axId val="168253904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -482,7 +482,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179173584"/>
+        <c:crossAx val="168253512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -531,6 +531,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -567,13 +568,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -599,8 +600,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="297555216"/>
-        <c:axId val="297555608"/>
+        <c:axId val="168254688"/>
+        <c:axId val="225910352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -647,13 +648,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>42.25</c:v>
+                  <c:v>33.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.421052631578945</c:v>
+                  <c:v>77.916666666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>119.7</c:v>
+                  <c:v>92.07692307692308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -714,11 +715,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="297555216"/>
-        <c:axId val="297555608"/>
+        <c:axId val="168254688"/>
+        <c:axId val="225910352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="297555216"/>
+        <c:axId val="168254688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -740,6 +741,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="cross"/>
@@ -755,7 +757,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297555608"/>
+        <c:crossAx val="225910352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -763,7 +765,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="297555608"/>
+        <c:axId val="225910352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -794,6 +796,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -815,13 +818,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297555216"/>
+        <c:crossAx val="168254688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -932,8 +936,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="297556392"/>
-        <c:axId val="297556784"/>
+        <c:axId val="225911136"/>
+        <c:axId val="225911528"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -992,11 +996,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="297556392"/>
-        <c:axId val="297556784"/>
+        <c:axId val="225911136"/>
+        <c:axId val="225911528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="297556392"/>
+        <c:axId val="225911136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,7 +1038,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297556784"/>
+        <c:crossAx val="225911528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1042,7 +1046,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="297556784"/>
+        <c:axId val="225911528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1095,7 +1099,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297556392"/>
+        <c:crossAx val="225911136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1555,15 +1559,15 @@
       </c>
       <c r="B5">
         <f>Metrics!B18</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <f>Metrics!C18</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <f>Metrics!E18</f>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1572,15 +1576,15 @@
       </c>
       <c r="B6" s="7">
         <f>Metrics!B19</f>
-        <v>42.25</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="C6" s="7">
         <f>Metrics!C19</f>
-        <v>98.421052631578945</v>
+        <v>77.916666666666671</v>
       </c>
       <c r="D6" s="7">
         <f>Metrics!E19</f>
-        <v>119.7</v>
+        <v>92.07692307692308</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4639,9 +4643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -4951,16 +4953,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D18" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E18" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4968,20 +4970,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="7">
-        <f t="shared" ref="B19:E19" si="0">B3/B18</f>
-        <v>42.25</v>
+        <f t="shared" ref="B19:C19" si="0">B3/B18</f>
+        <v>33.799999999999997</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="0"/>
-        <v>98.421052631578945</v>
+        <v>77.916666666666671</v>
       </c>
       <c r="D19" s="7">
         <f>D3/D18</f>
-        <v>112.6</v>
+        <v>90.08</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="0"/>
-        <v>119.7</v>
+        <f>E3/E18</f>
+        <v>92.07692307692308</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5023,7 +5025,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="8">
-        <f t="shared" ref="B22:E22" si="1">B6/100</f>
+        <f t="shared" ref="B22:C22" si="1">B6/100</f>
         <v>0.26539999999999997</v>
       </c>
       <c r="C22" s="8">
@@ -5035,7 +5037,7 @@
         <v>0.23699999999999999</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" si="1"/>
+        <f>E6/100</f>
         <v>0.2351</v>
       </c>
     </row>
@@ -5044,7 +5046,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8">
-        <f t="shared" ref="B23:D23" si="2">B3/B4</f>
+        <f t="shared" ref="B23:C23" si="2">B3/B4</f>
         <v>2.9649122807017543</v>
       </c>
       <c r="C23" s="8">
